--- a/Metodo Segundo Parcial/Metodos de Integracion.xlsx
+++ b/Metodo Segundo Parcial/Metodos de Integracion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB2AC0D-2CC1-4E95-BC14-FABAC280F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148675DF-2B04-4FA3-BC6A-33FBBC644964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Metodo de Simpson " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Metodo de los Trapecios</t>
   </si>
@@ -98,6 +99,9 @@
   </si>
   <si>
     <t>//ME FALTA LO DE LOS ERRORES; PREGUNTARLE A AGUS SI ES TAN NECESARIO HACERLO ASI O CON LA RESTA DE LO DE SYMBOLAB Y ESTE RESULTADO</t>
+  </si>
+  <si>
+    <t>El Epsilon son los valores Xi excepto el primer I</t>
   </si>
 </sst>
 </file>
@@ -288,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1026,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1192,9 @@
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4">

--- a/Metodo Segundo Parcial/Metodos de Integracion.xlsx
+++ b/Metodo Segundo Parcial/Metodos de Integracion.xlsx
@@ -8,26 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148675DF-2B04-4FA3-BC6A-33FBBC644964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B6EEC0-C3C5-4A23-9C7B-1D74EF1A738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo de Los Trapecios" sheetId="1" r:id="rId1"/>
     <sheet name="Metodo de Simpson " sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio 1 Trap" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejercicio 1 Simpson" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejercicio 3 SIMPSON" sheetId="5" r:id="rId5"/>
+    <sheet name="Ejercicio 3 Trapecios" sheetId="6" r:id="rId6"/>
+    <sheet name="Ejercicio 4 Trapecios" sheetId="7" r:id="rId7"/>
+    <sheet name="Ejercicio 4 Simpson" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="39">
   <si>
     <t>Metodo de los Trapecios</t>
   </si>
@@ -103,6 +118,48 @@
   <si>
     <t>El Epsilon son los valores Xi excepto el primer I</t>
   </si>
+  <si>
+    <t>Calculada=</t>
+  </si>
+  <si>
+    <t>|E|=</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>F´´(hi)</t>
+  </si>
+  <si>
+    <t>F´´(xi)=</t>
+  </si>
+  <si>
+    <t>"-5*COS(x)"</t>
+  </si>
+  <si>
+    <t>Sumatoria:</t>
+  </si>
+  <si>
+    <t>Promedio:</t>
+  </si>
+  <si>
+    <t>Et=</t>
+  </si>
+  <si>
+    <t>ERROR DE TRUNCAMIENTO</t>
+  </si>
+  <si>
+    <t>ME FALTA LA DERIVADA 2DA</t>
+  </si>
+  <si>
+    <t>f´´´´(XI)=</t>
+  </si>
+  <si>
+    <t>F´´´´(hi)</t>
+  </si>
+  <si>
+    <t>5COS(X)</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +202,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,9 +438,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,6 +803,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580511</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38FEE6E-D545-622A-DA9A-2DD6BC10CA85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2343150"/>
+          <a:ext cx="4114286" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -710,7 +861,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -758,6 +909,300 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C645E41-69DB-4890-77ED-0C8CA516E6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="2009775"/>
+          <a:ext cx="4009524" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>199524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7797E6E-1D9C-429B-BA67-23624618DDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="590550"/>
+          <a:ext cx="4009524" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D601C1-F72B-6EA6-45D6-F8379AE5CF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1524000"/>
+          <a:ext cx="5009524" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85099</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4495FD31-29B2-4F24-8C9D-1B5432766CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="1381125"/>
+          <a:ext cx="5009524" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170863</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA4806E-2C77-9284-837A-41482C7762B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="1266825"/>
+          <a:ext cx="4695238" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123238</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D96A32-DFCB-4D14-8D18-516CB4C35283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1171575"/>
+          <a:ext cx="4695238" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1028,15 +1473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1271,6 +1716,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
       <c r="D12" s="4">
         <v>8</v>
       </c>
@@ -1284,6 +1730,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="4">
         <v>9</v>
       </c>
@@ -1297,6 +1745,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="44"/>
       <c r="D14" s="7">
         <v>10</v>
       </c>
@@ -1308,6 +1757,187 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="57">
+        <v>1</v>
+      </c>
+      <c r="I17" s="57">
+        <f>E5</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="J17" s="57">
+        <f>-5*COS(I17)</f>
+        <v>-4.7552825814757673</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="57">
+        <v>2</v>
+      </c>
+      <c r="I18" s="57">
+        <f>E6</f>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="J18" s="57">
+        <f t="shared" ref="J18:J26" si="2">-5*COS(I18)</f>
+        <v>-4.0450849718747373</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="57">
+        <v>3</v>
+      </c>
+      <c r="I19" s="57">
+        <f>E7</f>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="J19" s="57">
+        <f t="shared" si="2"/>
+        <v>-2.9389262614623659</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="57">
+        <v>4</v>
+      </c>
+      <c r="I20" s="57">
+        <f>E8</f>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="J20" s="57">
+        <f t="shared" si="2"/>
+        <v>-1.5450849718747373</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="57">
+        <v>5</v>
+      </c>
+      <c r="I21" s="57">
+        <f>E9</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J21" s="57">
+        <f t="shared" si="2"/>
+        <v>-3.06287113727155E-16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="57">
+        <v>6</v>
+      </c>
+      <c r="I22" s="57">
+        <f>E10</f>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="J22" s="57">
+        <f t="shared" si="2"/>
+        <v>1.5450849718747368</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="57">
+        <v>7</v>
+      </c>
+      <c r="I23" s="57">
+        <f>E11</f>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="J23" s="57">
+        <f t="shared" si="2"/>
+        <v>2.938926261462365</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="57">
+        <v>8</v>
+      </c>
+      <c r="I24" s="57">
+        <f>E12</f>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="J24" s="57">
+        <f t="shared" si="2"/>
+        <v>4.0450849718747364</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="57">
+        <v>9</v>
+      </c>
+      <c r="I25" s="57">
+        <f>E13</f>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="J25" s="57">
+        <f t="shared" si="2"/>
+        <v>4.7552825814757673</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="57">
+        <v>10</v>
+      </c>
+      <c r="I26" s="57">
+        <f>E14</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J26" s="57">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59">
+        <f>SUM(J17:J26)</f>
+        <v>4.9999999999999973</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="59">
+        <f>J27/C3</f>
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="J28" s="58"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="60">
+        <f>-(((C6-C5)^3)/((12*C3)^2))*I28</f>
+        <v>-1.0766068291770763E-3</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,13 +1947,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB15553-CC2D-46B1-9F20-3E29F80FEFA4}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1510,10 +2143,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="24">
         <f>(C6-C5)*(F4+4*C8+2*C9+F14)/(3*C3)</f>
         <v>25.132741228718341</v>
       </c>
@@ -1570,6 +2203,1900 @@
       <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="57">
+        <v>1</v>
+      </c>
+      <c r="I17" s="57">
+        <f>E5</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="J17" s="57">
+        <f>5*COS(I17)</f>
+        <v>4.7552825814757673</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="57">
+        <v>2</v>
+      </c>
+      <c r="I18" s="57">
+        <f>E6</f>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="J18" s="57">
+        <f t="shared" ref="J18:J26" si="2">5*COS(I18)</f>
+        <v>4.0450849718747373</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="57">
+        <v>3</v>
+      </c>
+      <c r="I19" s="57">
+        <f>E7</f>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="J19" s="57">
+        <f t="shared" si="2"/>
+        <v>2.9389262614623659</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="57">
+        <v>4</v>
+      </c>
+      <c r="I20" s="57">
+        <f>E8</f>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="J20" s="57">
+        <f t="shared" si="2"/>
+        <v>1.5450849718747373</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="57">
+        <v>5</v>
+      </c>
+      <c r="I21" s="57">
+        <f>E9</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J21" s="57">
+        <f t="shared" si="2"/>
+        <v>3.06287113727155E-16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="57">
+        <v>6</v>
+      </c>
+      <c r="I22" s="57">
+        <f>E10</f>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="J22" s="57">
+        <f t="shared" si="2"/>
+        <v>-1.5450849718747368</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="57">
+        <v>7</v>
+      </c>
+      <c r="I23" s="57">
+        <f>E11</f>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="J23" s="57">
+        <f t="shared" si="2"/>
+        <v>-2.938926261462365</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="57">
+        <v>8</v>
+      </c>
+      <c r="I24" s="57">
+        <f>E12</f>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="J24" s="57">
+        <f t="shared" si="2"/>
+        <v>-4.0450849718747364</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="57">
+        <v>9</v>
+      </c>
+      <c r="I25" s="57">
+        <f>E13</f>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="J25" s="57">
+        <f t="shared" si="2"/>
+        <v>-4.7552825814757673</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="57">
+        <v>10</v>
+      </c>
+      <c r="I26" s="57">
+        <f>E14</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J26" s="57">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59">
+        <f>SUM(J17:J26)</f>
+        <v>-4.9999999999999973</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="59">
+        <f>J27/C3</f>
+        <v>-0.49999999999999972</v>
+      </c>
+      <c r="J28" s="58"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="60">
+        <f>-(((C6-C5)^5)/((180*C3)^4))*I28</f>
+        <v>1.4575697530163142E-11</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0485141A-C20E-4574-945C-6B2634D3A2E6}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="H2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <f>(C6-C5)/C3</f>
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C5</f>
+        <v>-3</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(1-E4-4*(E4^3)+3*(E4^5))</f>
+        <v>-617</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4+C$4</f>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F14" si="0">(1-E5-4*(E5^3)+3*(E5^5))</f>
+        <v>-108.81696000000004</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5+C$4</f>
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.7587200000000056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22">
+        <f>SUM(F5:F13)</f>
+        <v>5032.152000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E14" si="1">E6+C$4</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2307200000000003</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76895999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24">
+        <f>(C4/2)*(F4+2*C7+F14)</f>
+        <v>7327.321600000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>32.55904000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>284.53728000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="46">
+        <f>C9</f>
+        <v>7327.321600000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1203.4467200000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="48">
+        <v>6904</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>3621.18496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="50">
+        <f>ABS(C12-C13)</f>
+        <v>423.32160000000204</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>8871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="57">
+        <v>1</v>
+      </c>
+      <c r="I17" s="57">
+        <f>E5</f>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="J17" s="57">
+        <f>-5*COS(I17)</f>
+        <v>2.9425055862767291</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="57">
+        <v>2</v>
+      </c>
+      <c r="I18" s="57">
+        <f>E6</f>
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="J18" s="57">
+        <f t="shared" ref="J18:J26" si="2">-5*COS(I18)</f>
+        <v>-0.8498357145012041</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="57">
+        <v>3</v>
+      </c>
+      <c r="I19" s="57">
+        <f>E7</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="J19" s="57">
+        <f t="shared" si="2"/>
+        <v>-4.1266780745483906</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="57">
+        <v>4</v>
+      </c>
+      <c r="I20" s="57">
+        <f>E8</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J20" s="57">
+        <f t="shared" si="2"/>
+        <v>-4.9003328892062079</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="57">
+        <v>5</v>
+      </c>
+      <c r="I21" s="57">
+        <f>E9</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="57">
+        <f t="shared" si="2"/>
+        <v>-2.7015115293406988</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="57">
+        <v>6</v>
+      </c>
+      <c r="I22" s="57">
+        <f>E10</f>
+        <v>1.8</v>
+      </c>
+      <c r="J22" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1360104734654355</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="57">
+        <v>7</v>
+      </c>
+      <c r="I23" s="57">
+        <f>E11</f>
+        <v>2.6</v>
+      </c>
+      <c r="J23" s="57">
+        <f t="shared" si="2"/>
+        <v>4.2844437668447366</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="57">
+        <v>8</v>
+      </c>
+      <c r="I24" s="57">
+        <f>E12</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="J24" s="57">
+        <f t="shared" si="2"/>
+        <v>4.8339909628973041</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="57">
+        <v>9</v>
+      </c>
+      <c r="I25" s="57">
+        <f>E13</f>
+        <v>4.2</v>
+      </c>
+      <c r="J25" s="57">
+        <f t="shared" si="2"/>
+        <v>2.4513041067034971</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="57">
+        <v>10</v>
+      </c>
+      <c r="I26" s="57">
+        <f>E14</f>
+        <v>5</v>
+      </c>
+      <c r="J26" s="57">
+        <f t="shared" si="2"/>
+        <v>-1.4183109273161312</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59">
+        <f>SUM(J17:J26)</f>
+        <v>1.6515857612750688</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="59">
+        <f>J27/C3</f>
+        <v>0.1651585761275069</v>
+      </c>
+      <c r="J28" s="58"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="60">
+        <f>-(((C6-C5)^3)/((12*C3)^2))*I28</f>
+        <v>-5.872304928978023E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B172DD3-D7FD-4E9D-BFFA-5004CA2A82FC}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <f>(C6-C5)/C3</f>
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C5</f>
+        <v>-3</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(1-E4-4*(E4^3)+3*(E4^5))</f>
+        <v>-617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4+C$4</f>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F14" si="0">(1-E5-4*(E5^3)+3*(E5^5))</f>
+        <v>-108.81696000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5+C$4</f>
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.7587200000000056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E14" si="1">E6+C$4</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2307200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="14">
+        <f>SUM(F5+F7+F9+F11+F13)</f>
+        <v>3798.136</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76895999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="19">
+        <f>SUM(F6+F8+F10+F12)</f>
+        <v>1234.0160000000008</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>32.55904000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="24">
+        <f>(C6-C5)*(F4+4*C8+2*C9+F14)/(3*C3)</f>
+        <v>6910.5536000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>284.53728000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1203.4467200000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>3621.18496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="52">
+        <f>C11</f>
+        <v>6910.5536000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>8871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="51">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="53">
+        <f>ABS(C14-C15)</f>
+        <v>6.5536000000001877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6648DA4-89D4-4C69-AD5C-C0BEBB748E27}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <f>(C6-C5)/C3</f>
+        <v>5.8904862254808621E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>SIN(5*E4+1)</f>
+        <v>0.8414709848078965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4+C$4</f>
+        <v>5.8904862254808621E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F12" si="0">SIN(5*E5+1)</f>
+        <v>0.96207900718975559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19">
+        <f>(3*PI()/20)</f>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5+C$4</f>
+        <v>0.11780972450961724</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99983343147425341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E14" si="1">E6+C$4</f>
+        <v>0.17671458676442586</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95148287199276138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="14">
+        <f>SUM(F5+F7+F9+F11+F13)</f>
+        <v>2.6135784777187889</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23561944901923448</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.82119124646214536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="19">
+        <f>SUM(F6+F8+F10+F12)</f>
+        <v>1.9738239659470971</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2945243112740431</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.62017918218691159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35342917352885173</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36575770316999417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="24">
+        <f>(C6-C5)*(F4+4*C8+2*C9+F14)/(3*C3)</f>
+        <v>0.29930410366628851</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41233403578366035</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9837416349360341E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.21295841515929609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="54">
+        <f>C11</f>
+        <v>0.29930410366628851</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0.30470000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="53">
+        <f>ABS(C14-C15)</f>
+        <v>5.395896333711514E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126FF49-B9E3-426C-AD7C-9C650E80C7D3}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <f>(C6-C5)/C3</f>
+        <v>5.8904862254808621E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(1-E4-4*(E4^3)+3*(E4^5))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4+C$4</f>
+        <v>5.8904862254808621E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F14" si="0">(1-E5-4*(E5^3)+3*(E5^5))</f>
+        <v>0.94027971697058388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19">
+        <f>(3*PI()/20)</f>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5+C$4</f>
+        <v>0.11780972450961724</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.87571797016469466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22">
+        <f>SUM(F5:F13)</f>
+        <v>4.9508054422547172</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E14" si="1">E6+C$4</f>
+        <v>0.17671458676442586</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80172860016171921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23561944901923448</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7142360562527641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24">
+        <f>(C4/2)*(F4+2*C7+F14)</f>
+        <v>0.31536978720583697</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2945243112740431</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6099307007965159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35342917352885173</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.48652411357510056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41233403578366035</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.34300439614994371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="46">
+        <f>C9</f>
+        <v>0.31536978720583697</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17989147621763041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53014376029327759</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.0758803423478493E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="50">
+        <f>ABS(C12-C13)</f>
+        <v>1.0669787205836945E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.19384330357116814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0817CB63-4172-4A4E-B4DC-1C3029F5C990}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <f>(C6-C5)/C3</f>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>E4*EXP(2*E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4+C$4</f>
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F14" si="0">E5*EXP(2*E5)</f>
+        <v>0.89021637139698717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5+C$4</f>
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9624259395160921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22">
+        <f>SUM(F5:F13)</f>
+        <v>7963.2026181980991</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E14" si="1">E6+C$4</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>13.227811656769928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>39.252048315374964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24">
+        <f>(C4/2)*(F4+2*C7+F14)</f>
+        <v>5570.0474369126205</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>109.19630006628847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>291.62500204496365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>757.19394079322706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="46">
+        <f>C9</f>
+        <v>5570.0474369126205</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1925.9041211906615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="48">
+        <v>5216.92</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>4821.9507518199007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="50">
+        <f>ABS(C12-C13)</f>
+        <v>353.1274369126204</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>11923.8319481669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF0FF4-3B59-4F16-825E-F4ACE34C81F7}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <f>(C6-C5)/C3</f>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>E4*EXP(2*E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4+C$4</f>
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F14" si="0">E5*EXP(2*E5)</f>
+        <v>0.89021637139698717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5+C$4</f>
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9624259395160921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E12" si="1">E6+C$4</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>13.227811656769928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="14">
+        <f>SUM(F5+F7+F9+F11+F13)</f>
+        <v>5702.4590207075835</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>39.252048315374964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="19">
+        <f>SUM(F6+F8+F10+F12)</f>
+        <v>2260.7435974905161</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>109.19630006628847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>291.62500204496365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="24">
+        <f>(C6-C5)*(F4+4*C8+2*C9+F14)/(3*C3)</f>
+        <v>5234.0206967971026</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>757.19394079322706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1925.9041211906615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E14" si="2">E12+C$4</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>4821.9507518199007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="54">
+        <f>C11</f>
+        <v>5234.0206967971026</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>11923.8319481669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="51">
+        <v>5216.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="53">
+        <f>ABS(C14-C15)</f>
+        <v>17.100696797102501</v>
       </c>
     </row>
   </sheetData>
